--- a/데이터 통합 계획.xlsx
+++ b/데이터 통합 계획.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>영화제목(한글)</t>
   </si>
@@ -24,9 +24,6 @@
     <t>영화제목(영문)</t>
   </si>
   <si>
-    <t>개봉연도</t>
-  </si>
-  <si>
     <t>감독명(한글)</t>
   </si>
   <si>
@@ -123,6 +120,18 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -176,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -328,13 +337,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,19 +382,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,10 +701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W7"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -704,35 +727,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
+      <c r="A1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -754,112 +777,112 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="13" t="s">
-        <v>30</v>
+      <c r="W2" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="U3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="V3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="V3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>7</v>
+      <c r="W3" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -873,27 +896,27 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -908,37 +931,37 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W5" s="2"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -951,10 +974,10 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -964,22 +987,22 @@
     </row>
     <row r="7" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -987,22 +1010,22 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -1010,6 +1033,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="2"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/데이터 통합 계획.xlsx
+++ b/데이터 통합 계획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="12915" windowHeight="8970"/>
+    <workbookView xWindow="3660" yWindow="2655" windowWidth="14400" windowHeight="12705" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
   <si>
     <t>영화제목(한글)</t>
   </si>
@@ -132,6 +132,165 @@
   </si>
   <si>
     <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>movieNmEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directorNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>directorNmEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nationNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showTm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>genres</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>watchGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_lang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>budget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t>staff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ori_book</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver_ex_pt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>series</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>award</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audiAcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>줄거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver_cmt_nn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver_cmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉 전 댓글 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개봉 전 댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver_pre_eval</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">개봉전 평점 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -354,7 +519,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,13 +556,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -727,56 +901,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
     </row>
     <row r="2" spans="1:23" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
       <c r="W2" s="11" t="s">
         <v>29</v>
       </c>
@@ -1035,7 +1209,7 @@
       <c r="W7" s="2"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D8" s="14"/>
+      <c r="D8" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1050,12 +1224,295 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="21" max="21" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/데이터 통합 계획.xlsx
+++ b/데이터 통합 계획.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="2655" windowWidth="14400" windowHeight="12705" activeTab="1"/>
+    <workbookView xWindow="3660" yWindow="2655" windowWidth="14400" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="33">
   <si>
     <t>영화제목(한글)</t>
   </si>
@@ -132,165 +132,6 @@
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>movieNmEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directorNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>directorNmEn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nationNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showTm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>genres</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>watchGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori_lang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>budget</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t>staff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ori_book</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naver_ex_pt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>keyword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>series</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>award</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>audiAcc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>줄거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>plot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naver_cmt_nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naver_cmt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개봉 전 댓글 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개봉 전 댓글 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>naver_pre_eval</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">개봉전 평점 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -324,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +184,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="12">
     <border>
@@ -519,7 +354,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,15 +398,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -877,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -1224,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D26"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A1:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1236,283 +1062,7 @@
     <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="21" max="21" width="13.375" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
